--- a/optimised parameters.xlsx
+++ b/optimised parameters.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kkhissac/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kkhissac/Desktop/GIP_2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50F62AA-5872-944A-AC09-A138D66070B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B648A53B-9AD5-2A4D-834F-8CA3CB4C4EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{83EB8F60-C1D0-1B45-8330-CEF621CA43EC}"/>
+    <workbookView xWindow="920" yWindow="980" windowWidth="28800" windowHeight="16460" activeTab="1" xr2:uid="{83EB8F60-C1D0-1B45-8330-CEF621CA43EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Mechanical VDD" sheetId="3" r:id="rId1"/>
     <sheet name="Hydraulic VDD" sheetId="4" r:id="rId2"/>
     <sheet name="Mechanical VDS" sheetId="2" r:id="rId3"/>
+    <sheet name="Mechanical ADD" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
   <si>
     <t>L0</t>
   </si>
@@ -107,6 +108,36 @@
   </si>
   <si>
     <t>mm^2</t>
+  </si>
+  <si>
+    <t>NL8</t>
+  </si>
+  <si>
+    <t>NL1 A</t>
+  </si>
+  <si>
+    <t>spring</t>
+  </si>
+  <si>
+    <t>pipe</t>
+  </si>
+  <si>
+    <t>NL1 B</t>
+  </si>
+  <si>
+    <t>NL1 D</t>
+  </si>
+  <si>
+    <t>same</t>
+  </si>
+  <si>
+    <t>NL0 (dk)</t>
+  </si>
+  <si>
+    <t>ADD</t>
+  </si>
+  <si>
+    <t>DD</t>
   </si>
 </sst>
 </file>
@@ -153,12 +184,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -496,11 +534,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2D22CA-BA7A-B44F-8068-7DE9095AA4FA}">
   <dimension ref="A2:G14"/>
   <sheetViews>
-    <sheetView zoomScale="112" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="9" max="9" width="20.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
@@ -532,16 +573,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>756</v>
+        <v>816</v>
       </c>
       <c r="C4">
-        <v>6.5</v>
+        <v>8.9700000000000006</v>
       </c>
       <c r="D4">
-        <v>20000</v>
+        <v>18976</v>
       </c>
       <c r="E4">
-        <v>14.5</v>
+        <v>7.06</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -652,23 +693,40 @@
         <v>18</v>
       </c>
     </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11">
+        <v>564</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>16</v>
+      </c>
+      <c r="E11">
+        <v>3.5</v>
+      </c>
+    </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="4">
         <v>486.05799999999999</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="4">
         <v>722.6</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="4"/>
       <c r="D14">
         <v>18216</v>
       </c>
@@ -687,20 +745,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F41C699-0522-1E4E-83BF-323740D51E42}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="257" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -710,8 +768,14 @@
       <c r="C2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -719,15 +783,95 @@
         <v>10.52</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <v>7.04</v>
+      </c>
+      <c r="C4">
+        <v>8.5</v>
+      </c>
+      <c r="F4">
+        <v>0.61199999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>7.5</v>
+      </c>
+      <c r="D5">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>7.4687999999999999</v>
-      </c>
-      <c r="C4">
-        <v>41.375</v>
+      <c r="E5">
+        <v>12680</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <v>1.0078</v>
+      </c>
+      <c r="C7">
+        <v>39.25</v>
+      </c>
+      <c r="D7">
+        <v>34240</v>
+      </c>
+      <c r="E7">
+        <v>1.5625</v>
+      </c>
+      <c r="F7">
+        <v>0.49459999999999998</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>44</v>
+      </c>
+      <c r="D8">
+        <v>7561</v>
+      </c>
+      <c r="E8">
+        <v>1.9</v>
+      </c>
+      <c r="F8">
+        <v>0.4945</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9">
+        <v>4.8867000000000003</v>
+      </c>
+      <c r="C9">
+        <v>7.3125</v>
+      </c>
+      <c r="D9">
+        <v>45198</v>
+      </c>
+      <c r="E9">
+        <v>1.9776</v>
+      </c>
+      <c r="F9">
+        <v>0.58687</v>
       </c>
     </row>
   </sheetData>
@@ -779,4 +923,107 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB0CDF7-88BC-5240-802A-B085BC6868D3}">
+  <dimension ref="A2:G10"/>
+  <sheetViews>
+    <sheetView zoomScale="207" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>840.25779999999997</v>
+      </c>
+      <c r="D3">
+        <v>98.012500000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1080</v>
+      </c>
+      <c r="D4">
+        <v>312</v>
+      </c>
+      <c r="E4">
+        <v>14368</v>
+      </c>
+      <c r="F4">
+        <v>7</v>
+      </c>
+      <c r="G4">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>724</v>
+      </c>
+      <c r="D7">
+        <v>543.5</v>
+      </c>
+      <c r="E7">
+        <v>18080</v>
+      </c>
+      <c r="F7">
+        <v>7.625</v>
+      </c>
+      <c r="G7">
+        <v>0.51590000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A6:A7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>